--- a/biology/Botanique/Gymnogongrus_griffithsiae/Gymnogongrus_griffithsiae.xlsx
+++ b/biology/Botanique/Gymnogongrus_griffithsiae/Gymnogongrus_griffithsiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnogongrus griffithsiae est une espèce d’algues rouges de la famille des Phyllophoraceae.
 Cette espèce est nommée Fucus griffithsiae en 1808 par Dawson Turner en l’honneur d’Amelia Griffiths. Elle sera transférée dans le genre Gymnogongrus par Carl Friedrich Phil.Sigm. Martius en 1833. 
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (5 novembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (5 novembre 2017) :
 variété Gymnogongrus griffithsiae var. galapagensis Piccone &amp; Grunow, 1886
 variété Gymnogongrus griffithsiae var. tristis (J.V.Lamouroux) E.Taskin, 2014</t>
         </is>
